--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="kuaidi" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kuaidi" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tishiyu" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -30,11 +30,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <scheme val="major"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线 Light"/>
@@ -47,25 +56,16 @@
     <font>
       <name val="等线 Light"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="major"/>
     </font>
     <font>
       <name val="等线 Light"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -82,11 +82,40 @@
       <scheme val="major"/>
     </font>
     <font>
+      <name val="等线 Light"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,7 +129,28 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +159,15 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,6 +175,14 @@
       <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,29 +198,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,51 +206,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,7 +227,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,37 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,45 +431,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,251 +498,278 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="23" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="14" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="14" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1103,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1111,18 +1105,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="14.6666666666667"/>
-    <col customWidth="1" max="3" min="3" width="8.44166666666667"/>
-    <col customWidth="1" max="4" min="4" width="9.44166666666667"/>
-    <col customWidth="1" max="5" min="5" width="31"/>
-    <col customWidth="1" max="6" min="6" width="46.3333333333333"/>
-    <col customWidth="1" max="7" min="7" width="57.3333333333333"/>
-    <col customWidth="1" max="8" min="8" width="13.6666666666667"/>
+    <col width="14.6666666666667" customWidth="1" min="2" max="2"/>
+    <col width="8.44166666666667" customWidth="1" min="3" max="3"/>
+    <col width="9.44166666666667" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
+    <col width="46.3333333333333" customWidth="1" min="6" max="6"/>
+    <col width="57.3333333333333" customWidth="1" min="7" max="7"/>
+    <col width="13.6666666666667" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1186,7 +1180,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
@@ -1529,14 +1523,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1549,15 +1543,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
-    <col customWidth="1" max="2" min="2" width="20.8916666666667"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="16.3333333333333"/>
-    <col customWidth="1" max="6" min="6" width="43.6666666666667"/>
-    <col customWidth="1" max="7" min="7" width="20.3333333333333"/>
-    <col customWidth="1" max="8" min="8" width="14.225"/>
-    <col customWidth="1" max="9" min="9" width="55.4416666666667"/>
+    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
+    <col width="20.8916666666667" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
+    <col width="16.3333333333333" customWidth="1" min="5" max="5"/>
+    <col width="43.6666666666667" customWidth="1" min="6" max="6"/>
+    <col width="20.3333333333333" customWidth="1" min="7" max="7"/>
+    <col width="14.225" customWidth="1" min="8" max="8"/>
+    <col width="55.4416666666667" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1626,7 +1620,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="15" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1641,7 +1635,7 @@
           <t>{"status":1,"code":"10001","data":None,"msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1671,7 +1665,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="15" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1686,7 +1680,7 @@
           <t>{"status":1,"code":"10001","data":None,"msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="H3" s="12" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1716,7 +1710,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="15" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1731,7 +1725,7 @@
           <t>{"status":0,"code":"20110","data":None,"msg":"手机号码已被注册"}</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1756,7 +1750,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1771,7 +1765,7 @@
           <t>{"status":0,"code":"20103","data":None,"msg":"手机号不能为空"}</t>
         </is>
       </c>
-      <c r="H5" s="12" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1796,7 +1790,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="15" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1811,7 +1805,7 @@
           <t>{"status":0,"code":"20109","data":None,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="H6" s="12" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1836,7 +1830,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1876,7 +1870,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="15" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1891,7 +1885,7 @@
           <t>{"status":0,"code":"20109","data":None,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="H8" s="12" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1916,7 +1910,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="15" t="inlineStr">
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1931,7 +1925,7 @@
           <t>{"status":0,"code":"20109","data":None,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="H9" s="12" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1956,7 +1950,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="15" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1996,7 +1990,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E11" s="15" t="inlineStr">
+      <c r="E11" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -2036,7 +2030,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E12" s="15" t="inlineStr">
+      <c r="E12" s="14" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -2051,7 +2045,7 @@
           <t>{"status":0,"code":"20108","data":None,"msg":"密码长度必须为6~18"}</t>
         </is>
       </c>
-      <c r="H12" s="12" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2059,24 +2053,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId10"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="E12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId11"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2084,482 +2078,482 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
-    <col customWidth="1" max="2" min="2" width="8.891666666666669"/>
-    <col customWidth="1" max="3" min="3" width="24.8916666666667"/>
-    <col customWidth="1" max="4" min="4" width="8.225"/>
-    <col customWidth="1" max="5" min="5" width="17.4416666666667"/>
-    <col customWidth="1" max="6" min="6" width="43.1083333333333"/>
-    <col customWidth="1" max="7" min="7" width="14.6666666666667"/>
-    <col customWidth="1" max="8" min="8" width="6.89166666666667"/>
-    <col customWidth="1" max="9" min="9" width="69"/>
+    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
+    <col width="8.891666666666669" customWidth="1" min="2" max="2"/>
+    <col width="24.8916666666667" customWidth="1" min="3" max="3"/>
+    <col width="8.225" customWidth="1" min="4" max="4"/>
+    <col width="17.4416666666667" customWidth="1" min="5" max="5"/>
+    <col width="43.1083333333333" customWidth="1" min="6" max="6"/>
+    <col width="14.6666666666667" customWidth="1" min="7" max="7"/>
+    <col width="6.89166666666667" customWidth="1" min="8" max="8"/>
+    <col width="69" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.4" r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="14.4" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>excepted_code</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>正常登陆</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","pwd":"123qwe"}</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="6" t="n">
         <v>10001</v>
       </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.4" r="3">
-      <c r="A3" s="3" t="n">
+      <c r="H2" s="11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>正常充值</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":50000}</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="6" t="n">
         <v>10001</v>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>select LeaveAmount from member where mobilephone = '15677889900'</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>正常充值：充值金额为小数</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":100.10}</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="6" t="n">
         <v>10001</v>
       </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>select LeaveAmount from member where mobilephone = '15677889900'</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>充值手机号码不存在</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"12345677889","amount":101}</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="6" t="n">
         <v>20109</v>
       </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.4" r="6">
-      <c r="A6" s="3" t="n">
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>充值金额小数点大于两位</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":102.223}</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="6" t="n">
         <v>20116</v>
       </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.4" r="7">
-      <c r="A7" s="3" t="n">
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>充值额度为负数</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":-103}</t>
         </is>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="13" t="n">
         <v>20117</v>
       </c>
-      <c r="H7" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="8">
-      <c r="A8" s="3" t="n">
+      <c r="H7" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="15.6" customHeight="1">
+      <c r="A8" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>充值额度为空</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F8" s="10" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":None}</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="13" t="n">
         <v>20115</v>
       </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="9">
-      <c r="A9" s="3" t="n">
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="15.6" customHeight="1">
+      <c r="A9" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>充值失败，充值额度大于50万</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":510000}</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="13" t="n">
         <v>20117</v>
       </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="15.6" customHeight="1">
+      <c r="A10" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>充值失败，充值金额小数超过两位</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":1000.123}</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="13" t="n">
         <v>20116</v>
       </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1">
+      <c r="A11" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>充值</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>充值失败，充值金额输入的不是数字</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
         </is>
       </c>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":"abc"}</t>
         </is>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="13" t="n">
         <v>20118</v>
       </c>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="10" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="5" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId10"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2567,422 +2561,422 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="29.3333333333333"/>
-    <col customWidth="1" max="5" min="5" width="15.8916666666667"/>
-    <col customWidth="1" max="6" min="6" width="45.1083333333333"/>
-    <col customWidth="1" max="7" min="7" width="21.225"/>
-    <col customWidth="1" max="8" min="8" width="23.6666666666667"/>
-    <col customWidth="1" max="9" min="9" width="19.225"/>
+    <col width="29.3333333333333" customWidth="1" min="3" max="3"/>
+    <col width="15.8916666666667" customWidth="1" min="5" max="5"/>
+    <col width="45.1083333333333" customWidth="1" min="6" max="6"/>
+    <col width="21.225" customWidth="1" min="7" max="7"/>
+    <col width="23.6666666666667" customWidth="1" min="8" max="8"/>
+    <col width="19.225" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15.6" r="1" s="13">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>excepted_code</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="2" s="13">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>正常登陆</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","pwd":"123qwe"}</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="6" t="n">
         <v>10001</v>
       </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="3" s="13">
-      <c r="A3" s="3" t="n">
+      <c r="H2" s="11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>取现成功</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":0.1}</t>
         </is>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="13" t="n">
         <v>10001</v>
       </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>select LeaveAmount from member where mobilephone = '15677889900'</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="4" s="13">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>取现失败，手机号为空</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"","amount":1000}</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="13" t="n">
         <v>20103</v>
       </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="5" s="13">
-      <c r="A5" s="3" t="n">
+      <c r="H4" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>取现失败，金额为空</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":None}</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="13" t="n">
         <v>20115</v>
       </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="6" s="13">
-      <c r="A6" s="3" t="n">
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>取现失败，金额不大于0</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="14" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":-20}</t>
         </is>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="13" t="n">
         <v>20117</v>
       </c>
-      <c r="H6" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="7" s="13">
-      <c r="A7" s="3" t="n">
+      <c r="H6" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>取现失败，金额大于50万</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="14" t="inlineStr">
+      <c r="E7" s="10" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
         </is>
       </c>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":510000}</t>
         </is>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="13" t="n">
         <v>20117</v>
       </c>
-      <c r="H7" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="8" s="13">
-      <c r="A8" s="3" t="n">
+      <c r="H7" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>取现失败，金额小数超过两位</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="14" t="inlineStr">
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
         </is>
       </c>
-      <c r="F8" s="10" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":1000.123}</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="13" t="n">
         <v>20116</v>
       </c>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="9" s="13">
-      <c r="A9" s="3" t="n">
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="15.6" customFormat="1" customHeight="1" s="7">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>取现</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>取现失败，金额不是数字</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="14" t="inlineStr">
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>{"mobilephone":"15677889900","amount":"abc"}</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="13" t="n">
         <v>20118</v>
       </c>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="n"/>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E2" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="E3" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="E4" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="E5" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="E6" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="E7" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="E8" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="E9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" r:id="rId8"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.375"/>
-    <col customWidth="1" max="2" min="2" width="7.625"/>
-    <col customWidth="1" max="3" min="3" width="18.75"/>
-    <col customWidth="1" max="4" min="4" width="7.375"/>
-    <col customWidth="1" max="5" min="5" width="46.5"/>
-    <col customWidth="1" max="6" min="6" width="45"/>
-    <col customWidth="1" max="7" min="7" width="40.75"/>
-    <col customWidth="1" max="9" min="9" width="12.25"/>
+    <col width="6.375" customWidth="1" min="1" max="1"/>
+    <col width="16.7333333333333" customWidth="1" min="2" max="2"/>
+    <col width="18.75" customWidth="1" min="3" max="3"/>
+    <col width="7.375" customWidth="1" min="4" max="4"/>
+    <col width="26.3" customWidth="1" min="5" max="5"/>
+    <col width="45" customWidth="1" min="6" max="6"/>
+    <col width="40.75" customWidth="1" min="7" max="7"/>
+    <col width="12.25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -3023,19 +3017,19 @@
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="220" r="2">
+    <row r="2" ht="384.75" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>快递</t>
+          <t>文捷航空速递</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3048,19 +3042,43 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>http://sandboxapi.kdniao.com:8080/kdniaosandbox/gateway/exterfaceInvoke.json</t>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RequestType=1002&amp;EBusinessID=test1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22SF%22%2C%22LogisticCode%22%3A%22118461988807%22%7D&amp;DataSign=OTg2YTc1MjYyMjhhMjM2NWIzZGFkOGRiN2FiOWJiZmI%3D&amp;DataType=2</t>
-        </is>
-      </c>
-      <c r="G2" s="12" t="inlineStr">
-        <is>
-          <t>{'EBusinessID': 'test1672137', 'OrderCode': '', 'ShipperCode': 'SF', 'LogisticCode': '118461988807', 'Success': True, 'State': '3', 'Reason': None, 'Traces': [{'AcceptTime': '2020-09-24 14:11:47', 'AcceptStation': '快件已经签收，签收人：张启明[武汉市]', 'Remark': '已经签收'}, {'AcceptTime': '2020-09-21 14:11:47', 'AcceptStation': '快件到达武汉市武昌区徐东大街1号网点[武汉市]', 'Remark': '到达目的城市'}, {'AcceptTime': '2020-09-20 14:11:47', 'AcceptStation': '快件在离开深圳集散中心，发往武汉市[深圳市]', 'Remark': '离开发件城市'}, {'AcceptTime': '2020-09-19 14:11:47', 'AcceptStation': '快件已经到达深圳集散中心[深圳市]', 'Remark': None}, {'AcceptTime': '2020-09-18 14:11:47', 'AcceptStation': '深圳福田保税区网点已揽件[深圳市]', 'Remark': '已揽件'}]}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22WJEXPRESS%22%2C%22LogisticCode%22%3A%221967440672%22%7D&amp;DataSign=Mjc5MWU5MDRhM2ExNDlhZmJhYjJhYjU4YTEzMTdjOGE%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "1967440672",
+    "ShipperCode": "WJEXPRESS",
+    "Traces": [
+        {
+            "AcceptStation": "China In Transit to Destination",
+            "AcceptTime": "2008-01-09 23:59:00"
+        },
+        {
+            "AcceptStation": "Arrived Hub",
+            "AcceptTime": "2008-01-10 08:23:00"
+        },
+        {
+            "AcceptStation": "In Transit to Destination",
+            "AcceptTime": "2008-01-10 20:15:00"
+        },
+        {
+            "AcceptStation": "Out for Delivery",
+            "AcceptTime": "2008-01-11 08:04:00"
+        }
+    ],
+    "State": "2",
+    "EBusinessID": "1672137",
+    "Success": True
+}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3068,15 +3086,15 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="I2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="99.75" r="3">
+      <c r="I2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="409.5" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>密码不正确</t>
+          <t>卓志速运</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3089,39 +3107,99 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{"mobilephone": "15677889900",'pwd':'121212'}</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22ESDEX%22%2C%22LogisticCode%22%3A%22982074119438%22%7D&amp;DataSign=YWRjYzc5M2NjYTJjYWYzYWRmZTQ1YTNlZGI1ODM1NTU%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "982074119438",
+    "ShipperCode": "ESDEX",
+    "Traces": [
+        {
+            "AcceptStation": "【Irwindale】[美国洛杉矶仓] 已揽件",
+            "AcceptTime": "2020-03-20 13:26:07"
+        },
+        {
+            "AcceptStation": "【Irwindale】包裹已到达 [美国洛杉矶仓]",
+            "AcceptTime": "2020-03-20 13:35:55"
+        },
+        {
+            "AcceptStation": "【Irwindale】包裹已从 [美国洛杉矶仓] 出库，等待干线运输",
+            "AcceptTime": "2020-03-20 19:50:01"
+        },
+        {
+            "AcceptStation": "【Irwindale】干线航班已从 [美国] 起飞",
+            "AcceptTime": "2020-03-21 09:10:00"
+        },
+        {
+            "AcceptStation": "【广州】干线航班已到达 [白云机场]",
+            "AcceptTime": "2020-03-22 19:22:00"
+        },
+        {
+            "AcceptStation": "【广州】包裹清关中",
+            "AcceptTime": "2020-03-22 21:13:00"
+        },
+        {
+            "AcceptStation": "【广州】包裹清关完毕",
+            "AcceptTime": "2020-03-25 18:31:23"
+        },
+        {
+            "AcceptStation": "【广东省广州市天河区元岗公司】 已收件",
+            "AcceptTime": "2020-03-25 22:01:23"
+        },
+        {
+            "AcceptStation": "【广东省广州市天河区元岗】 已发出 下一站 【广州转运中心】",
+            "AcceptTime": "2020-03-25 22:26:39"
+        },
+        {
+            "AcceptStation": "【广州转运中心】 已收入",
+            "AcceptTime": "2020-03-26 04:10:16"
+        },
+        {
+            "AcceptStation": "【广州转运中心】 已发出 下一站 【广东省广州市天河区华景新城公司】",
+            "AcceptTime": "2020-03-26 04:20:15"
+        },
+        {
+            "AcceptStation": "【广东省广州市天河区华景新城公司】 已收入",
+            "AcceptTime": "2020-03-26 06:41:44"
+        },
+        {
+            "AcceptStation": "【广东省广州市天河区华景新城公司】 派件人: 刘扬昌 派件中 派件员电话15218234440",
+            "AcceptTime": "2020-03-26 08:19:52"
+        },
+        {
+            "AcceptStation": "客户 签收人: 本人签收 已签收 感谢使用圆通速递，期待再次为您服务",
+            "AcceptTime": "2020-03-26 16:49:04"
+        }
+    ],
+    "State": "3",
+    "EBusinessID": "1672137",
+    "Success": True
+}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="99.75" r="4">
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="409.5" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>账号未注册</t>
+          <t>美国快递</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3134,39 +3212,123 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{"mobilephone": "15677889910",'pwd':'123qwe'}</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22USEX%22%2C%22LogisticCode%22%3A%22SF735242074US%22%7D&amp;DataSign=YzgyNmUxYzIzZDNhMThiY2NhODMyYWVhNjgzZThmNTE%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "SF735242074US",
+    "ShipperCode": "USEX",
+    "Traces": [
+        {
+            "AcceptStation": "包裹已处理(待发货)",
+            "AcceptTime": "2020-02-20 17:50:00"
+        },
+        {
+            "AcceptStation": "包裹已入库",
+            "AcceptTime": "2020-02-20 17:50:00"
+        },
+        {
+            "AcceptStation": "装袋扫描",
+            "AcceptTime": "2020-02-20 18:20:00"
+        },
+        {
+            "AcceptStation": "货物送达机场",
+            "AcceptTime": "2020-02-21 18:52:00"
+        },
+        {
+            "AcceptStation": "航班起飞",
+            "AcceptTime": "2020-02-23 09:27:00"
+        },
+        {
+            "AcceptStation": "航班抵达",
+            "AcceptTime": "2020-02-26 16:26:00"
+        },
+        {
+            "AcceptStation": "海关清关中",
+            "AcceptTime": "2020-02-26 16:56:00"
+        },
+        {
+            "AcceptStation": "清关结束开始派送",
+            "AcceptTime": "2020-02-27 11:41:00"
+        },
+        {
+            "AcceptStation": "转国内 韵达快递:3103141311813",
+            "AcceptTime": "2020-02-28 20:32:00"
+        },
+        {
+            "AcceptStation": "【深圳市】 广东深圳公司龙王庙便民一KH分部-张羽宸(16675544343) 已揽收",
+            "AcceptTime": "2020-02-29 22:07:00"
+        },
+        {
+            "AcceptStation": "【深圳市】 广东深圳公司宝安区福永环宇集包分部-公司账号 已揽收",
+            "AcceptTime": "2020-02-29 22:10:00"
+        },
+        {
+            "AcceptStation": "【深圳市】 已离开 广东深圳公司宝安区福永环宇集包分部 发往 山东潍坊分拨中心",
+            "AcceptTime": "2020-02-29 23:13:00"
+        },
+        {
+            "AcceptStation": "【深圳市】 广东深圳公司-陈瓒(18790493706) 已揽收",
+            "AcceptTime": "2020-03-01 02:04:00"
+        },
+        {
+            "AcceptStation": "【深圳市】 已离开 广东深圳公司 发往 山东潍坊分拨中心",
+            "AcceptTime": "2020-03-01 02:07:00"
+        },
+        {
+            "AcceptStation": "【潍坊市】 已到达 山东潍坊分拨中心",
+            "AcceptTime": "2020-03-02 17:20:00"
+        },
+        {
+            "AcceptStation": "【潍坊市】 已离开 山东潍坊分拨中心 发往 山东东营公司",
+            "AcceptTime": "2020-03-02 17:33:00"
+        },
+        {
+            "AcceptStation": "【东营市】 已离开 山东东营公司 发往 山东东营公司垦利县分部(13105465558)",
+            "AcceptTime": "2020-03-03 05:50:00"
+        },
+        {
+            "AcceptStation": "【东营市】 已到达 山东东营公司垦利县分部",
+            "AcceptTime": "2020-03-03 09:24:00"
+        },
+        {
+            "AcceptStation": "【东营市】 山东东营公司垦利县分部 派件员 吴洪霞(13645462002)正在为您派送",
+            "AcceptTime": "2020-03-03 09:28:00"
+        },
+        {
+            "AcceptStation": "【东营市】 您的快件已签收，签收人:门卫 如有疑问请电联快递员:吴洪霞(13645462002) 投诉电话: 021-39209001",
+            "AcceptTime": "2020-03-03 12:54:00"
+        }
+    ],
+    "State": "3",
+    "EBusinessID": "1672137",
+    "Success": True
+}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="99.75" r="5">
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="409.5" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>手机号为空</t>
+          <t>澳德物流</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3179,19 +3341,91 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{"mobilephone": "",'pwd':'124qwe'}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"20103","data":None,"msg":"手机号不能为空"}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22AUODEXPRESS%22%2C%22LogisticCode%22%3A%22B0000983132%22%7D&amp;DataSign=MjBlNjAxOGRiNmFlN2M3MDkxNmRlNzk3NzIyMTcwZjk%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "B0000983132",
+    "ShipperCode": "AUODEXPRESS",
+    "Traces": [
+        {
+            "AcceptStation": "身份信息已收录",
+            "AcceptTime": "2020-09-01 19:36:48"
+        },
+        {
+            "AcceptStation": "悉尼仓仓库已成功收件，等待理货运输",
+            "AcceptTime": "2020-09-03 09:38:57"
+        },
+        {
+            "AcceptStation": "订单创建成功",
+            "AcceptTime": "2020-09-03 14:59:25"
+        },
+        {
+            "AcceptStation": "出库扫描完毕，等待发往机场",
+            "AcceptTime": "2020-09-04 08:53:57"
+        },
+        {
+            "AcceptStation": "包裹已到达机场等待发运",
+            "AcceptTime": "2020-09-04 09:53:57"
+        },
+        {
+            "AcceptStation": "航班起飞",
+            "AcceptTime": "2020-09-06 09:23:00"
+        },
+        {
+            "AcceptStation": "航班到达",
+            "AcceptTime": "2020-09-06 18:11:00"
+        },
+        {
+            "AcceptStation": "清关中-2020-09-06 22:11",
+            "AcceptTime": "2020-09-06 22:11:00"
+        },
+        {
+            "AcceptStation": "清关中-2020-09-08 01:07",
+            "AcceptTime": "2020-09-08 01:07:48"
+        },
+        {
+            "AcceptStation": "【泉州转运中心公司】 已收入",
+            "AcceptTime": "2020-09-08 21:20:21"
+        },
+        {
+            "AcceptStation": "【泉州转运中心】 已发出 下一站 【长沙转运中心公司】",
+            "AcceptTime": "2020-09-08 21:47:32"
+        },
+        {
+            "AcceptStation": "【长沙转运中心公司】 已收入",
+            "AcceptTime": "2020-09-09 18:15:51"
+        },
+        {
+            "AcceptStation": "【长沙转运中心】 已发出 下一站 【湖南省长沙市南边二部公司】",
+            "AcceptTime": "2020-09-09 18:39:24"
+        },
+        {
+            "AcceptStation": "【湖南省长沙市浏城桥公司】 已收入",
+            "AcceptTime": "2020-09-09 22:09:59"
+        },
+        {
+            "AcceptStation": "【湖南省长沙市浏城桥公司】 派件中  派件人: 肖世锋 电话 13622237731  如有疑问，请联系：0731-84155077",
+            "AcceptTime": "2020-09-10 08:56:17"
+        },
+        {
+            "AcceptStation": "客户签收人: 唐素芳 已签收  感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18521860790，投诉电话：0731-84155077",
+            "AcceptTime": "2020-09-10 17:59:33"
+        }
+    ],
+    "State": "3",
+    "EBusinessID": "1672137",
+    "Success": True
+}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3199,19 +3433,15 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="99.75" r="6">
+      <c r="I5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="409.5" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>手机号未注册</t>
+          <t>中环快递</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3224,39 +3454,143 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{"mobilephone": "15609899820",'pwd':'125qwe'}</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22ZHONGHUAN%22%2C%22LogisticCode%22%3A%22900019702814%22%7D&amp;DataSign=OGU2YWI2MzAxZjJkMDkxYjU4NTI1YmJlZGM4MWEzMzA%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "900019702814",
+    "ShipperCode": "ZHONGHUAN",
+    "Traces": [
+        {
+            "AcceptStation": "【Australia】货物已收寄",
+            "AcceptTime": "2020-09-14 10:27:58"
+        },
+        {
+            "AcceptStation": "【Australia】运单详情已录入系统",
+            "AcceptTime": "2020-09-14 19:49:44"
+        },
+        {
+            "AcceptStation": "【Australia】货物到达澳大利亚处理中心",
+            "AcceptTime": "2020-09-14 19:51:39"
+        },
+        {
+            "AcceptStation": "【Australia】货物正在处理中",
+            "AcceptTime": "2020-09-15 10:34:34"
+        },
+        {
+            "AcceptStation": "【Australia】货物订舱，等待分配航班",
+            "AcceptTime": "2020-09-15 12:36:09"
+        },
+        {
+            "AcceptStation": "【Australia】航班配备中",
+            "AcceptTime": "2020-09-16 08:06:01"
+        },
+        {
+            "AcceptStation": "【Australia】货物送往澳洲机场",
+            "AcceptTime": "2020-09-16 10:41:03"
+        },
+        {
+            "AcceptStation": "【Australia】发往中国",
+            "AcceptTime": "2020-09-17 10:30:00"
+        },
+        {
+            "AcceptStation": "【Australia】航班预计2020年09月21日到达中国清关口岸，悉尼客服电话：+61 406 773 675，中国客服电话：400-673-9555官方微信：cq-zhonghuan",
+            "AcceptTime": "2020-09-17 11:07:55"
+        },
+        {
+            "AcceptStation": "【China】到达中国，等待清关",
+            "AcceptTime": "2020-09-21 09:00:00"
+        },
+        {
+            "AcceptStation": "【China】清关数据申报中",
+            "AcceptTime": "2020-09-22 08:00:00"
+        },
+        {
+            "AcceptStation": "【China】等待清关",
+            "AcceptTime": "2020-09-23 08:00:00"
+        },
+        {
+            "AcceptStation": "【China】清关中",
+            "AcceptTime": "2020-09-23 13:20:00"
+        },
+        {
+            "AcceptStation": "【China】清关完毕",
+            "AcceptTime": "2020-09-23 15:20:00"
+        },
+        {
+            "AcceptStation": "【重庆市渝北区航空港公司】 已收件 取件人: 蒋儒学 (15002307789)",
+            "AcceptTime": "2020-09-23 16:46:00"
+        },
+        {
+            "AcceptStation": "【重庆市渝北区航空港】 已发出 下一站 【重庆转运中心公司】",
+            "AcceptTime": "2020-09-23 17:22:00"
+        },
+        {
+            "AcceptStation": "【重庆转运中心公司】 已收入",
+            "AcceptTime": "2020-09-23 20:31:00"
+        },
+        {
+            "AcceptStation": "【重庆转运中心】 已发出 下一站 【杭州转运中心公司】",
+            "AcceptTime": "2020-09-23 20:56:00"
+        },
+        {
+            "AcceptStation": "【杭州转运中心公司】 已收入",
+            "AcceptTime": "2020-09-25 10:37:00"
+        },
+        {
+            "AcceptStation": "【杭州转运中心】 已发出 下一站 【浙江省杭州市余杭区临平公司】",
+            "AcceptTime": "2020-09-25 11:21:00"
+        },
+        {
+            "AcceptStation": "【浙江省杭州市余杭区临平公司】 已收入",
+            "AcceptTime": "2020-09-26 03:17:00"
+        },
+        {
+            "AcceptStation": "【浙江省杭州市余杭区临平】 已发出 下一站 【浙江省杭州市余杭区临平运河公司】",
+            "AcceptTime": "2020-09-26 03:17:00"
+        },
+        {
+            "AcceptStation": "【浙江省杭州市余杭区临平运河公司】 已收入",
+            "AcceptTime": "2020-09-26 08:49:00"
+        },
+        {
+            "AcceptStation": "【浙江省杭州市余杭区临平运河公司】 派件中 派件人: 吴波 电话 18521105924 如有疑问，请联系：0571-89263770",
+            "AcceptTime": "2020-09-26 10:10:00"
+        },
+        {
+            "AcceptStation": "客户签收人: 郑娟 已签收",
+            "AcceptTime": "2020-09-26 14:01:00"
+        }
+    ],
+    "State": "3",
+    "EBusinessID": "1672137",
+    "Success": True
+}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="99.75" r="7">
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="85.5" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>手机号包含非数字</t>
+          <t>迅达速递</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3269,39 +3603,40 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{"mobilephone": "1567781qq11",'pwd':'126qwe'}</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22XDEXPRESS%22%2C%22LogisticCode%22%3A%22XDE1847756AU%22%7D&amp;DataSign=Zjc3OGIxMjQyNzE1YzYyMjdkNGViZDUxMmU2ZjQ2MTM%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "XDE1847756AU",
+    "ShipperCode": "XDEXPRESS",
+    "State": "3",
+    "EBusinessID": "1672137",
+ "Success": True}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="99.75" r="8">
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="409.5" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>手机号为非手机号码数字</t>
+          <t>E通速递</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3314,39 +3649,115 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{"mobilephone": "11177889910",'pwd':'127qwe'}</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22ETONG%22%2C%22LogisticCode%22%3A%22ETAL00256%22%7D&amp;DataSign=N2MxNjdlMDI4MmExNzc0MTE4YjIxMTUxOGRjODZkNWU%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "ETAL00256",
+    "ShipperCode": "ETONG",
+    "Traces": [
+        {
+            "AcceptStation": "【录单】运单信息已录入",
+            "AcceptTime": "2020-03-09 19:44:07"
+        },
+        {
+            "AcceptStation": "【预配】【JJYZ】快递单号：【9973553815741】,查询的网址是 www.ems.com.cn",
+            "AcceptTime": "2020-03-10 05:42:33"
+        },
+        {
+            "AcceptStation": "【装袋】包裹分拣打包完成，已贴单",
+            "AcceptTime": "2020-03-12 09:34:18"
+        },
+        {
+            "AcceptStation": "【上板确认】出仓确认，下一站是【澳洲机场】",
+            "AcceptTime": "2020-03-12 17:07:48"
+        },
+        {
+            "AcceptStation": "【澳洲机场】到达澳洲机场，正在等待航班",
+            "AcceptTime": "2020-03-12 20:07:48"
+        },
+        {
+            "AcceptStation": "【澳洲机场】CX2022/XH8105 下一站XMN",
+            "AcceptTime": "2020-03-17 21:15:00"
+        },
+        {
+            "AcceptStation": "【XMN】到达XMN，正等待提货安排",
+            "AcceptTime": "2020-03-18 13:45:00"
+        },
+        {
+            "AcceptStation": "【中国海关】中国海关已提货，清关中",
+            "AcceptTime": "2020-03-19 10:00:00"
+        },
+        {
+            "AcceptStation": "【EMS】【晋江龙湖电商营业部】已收件,揽投员:施清演,电话:15059753600",
+            "AcceptTime": "2020-03-26 18:55:38"
+        },
+        {
+            "AcceptStation": "【EMS】【晋江龙湖电商营业部】,下一站【泉州中心局邮件处理中心】",
+            "AcceptTime": "2020-03-26 18:58:27"
+        },
+        {
+            "AcceptStation": "【EMS】到达【泉州中心局邮件处理中心】",
+            "AcceptTime": "2020-03-26 19:16:04"
+        },
+        {
+            "AcceptStation": "【EMS】【泉州中心局邮件处理中心】,下一站【深圳市处理中心】",
+            "AcceptTime": "2020-03-27 03:44:21"
+        },
+        {
+            "AcceptStation": "【EMS】到达【深圳市处理中心】",
+            "AcceptTime": "2020-03-27 19:01:42"
+        },
+        {
+            "AcceptStation": "【EMS】【深圳市处理中心】,下一站【深圳市福田区寄递事业部沙嘴营业部】",
+            "AcceptTime": "2020-03-27 23:36:47"
+        },
+        {
+            "AcceptStation": "【EMS】到达【深圳市福田区寄递事业部沙嘴营业部】",
+            "AcceptTime": "2020-03-28 07:24:56"
+        },
+        {
+            "AcceptStation": "【EMS】【深圳市福田区寄递事业部沙嘴营业部】安排投递,投递员:邱燕洪,电话:14774794271,揽投部电话:0755-82576077",
+            "AcceptTime": "2020-03-28 08:54:52"
+        },
+        {
+            "AcceptStation": "【EMS】【深圳市福田区寄递事业部沙嘴营业部】投递结果反馈-未妥投,备注(未联系上收件人,安排再投),投递员:邱燕洪,电话:14774794271",
+            "AcceptTime": "2020-03-28 12:18:29"
+        },
+        {
+            "AcceptStation": "【EMS】已签收,他人代收：丰巢快递柜代收,投递员:邱燕洪,电话:14774794271",
+            "AcceptTime": "2020-03-28 19:04:04"
+        }
+    ],
+    "State": "3",
+    "EBusinessID": "1672137",
+    "Success": True
+}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-      <c r="I8" s="10" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="99.75" r="9">
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="409.5" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>手机号长度不足11位</t>
+          <t>速递中国</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3359,134 +3770,162 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{"mobilephone": "15677889910",'pwd':'128qwe'}</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+          <t>RequestType=1002&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22SENDCN%22%2C%22LogisticCode%22%3A%22SD210953877GB%22%7D&amp;DataSign=NjFkMzllY2I2YzNkZTU0MmJiZjAyMzMxYjU0MWYyMTk%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "SD210953877GB",
+    "ShipperCode": "SENDCN",
+    "Traces": [
+        {
+            "AcceptStation": "【英国 伦敦】单号SD210953877GB注册生成 Item is announced in the Uk",
+            "AcceptTime": "2020-06-29 10:53:00"
+        },
+        {
+            "AcceptStation": "【英国 Whitemoor】网点揽收 Received by 诺丁汉 Nottingham",
+            "AcceptTime": "2020-06-30 12:11:00"
+        },
+        {
+            "AcceptStation": "【英国 伦敦】集运中心处理（自动扫描） Processed by【London Gatwick Hub】(auto scan)",
+            "AcceptTime": "2020-07-01 11:39:00"
+        },
+        {
+            "AcceptStation": "【英国 伦敦 希思罗机场】发往机场途中 On route to airport",
+            "AcceptTime": "2020-07-02 11:43:00"
+        },
+        {
+            "AcceptStation": "【英国 伦敦 希思罗机场】离境发往中国 Exported from the UK",
+            "AcceptTime": "2020-07-04 09:30:00"
+        },
+        {
+            "AcceptStation": "【中国大陆 广州 白云机场】到达国际机场 Arrival at destination country",
+            "AcceptTime": "2020-07-06 15:10:00"
+        },
+        {
+            "AcceptStation": "【中国大陆 广州 海关】到达海关处理中心 Awaiting Customs clearance",
+            "AcceptTime": "2020-07-07 08:01:00"
+        },
+        {
+            "AcceptStation": "【江高大宗班】已收件揽投员:B邦昊南沙1电话:15870952783",
+            "AcceptTime": "2020-07-08 15:17:00"
+        },
+        {
+            "AcceptStation": "离开【江高大宗班】下一站【广州江高处理中心】",
+            "AcceptTime": "2020-07-08 17:50:00"
+        },
+        {
+            "AcceptStation": "到达【广州江高处理中心】",
+            "AcceptTime": "2020-07-08 20:52:00"
+        },
+        {
+            "AcceptStation": "离开【广州江高处理中心】下一站【长春市邮件处理中心】",
+            "AcceptTime": "2020-07-09 00:34:00"
+        },
+        {
+            "AcceptStation": "到达【长春市邮件处理中心】",
+            "AcceptTime": "2020-07-11 00:48:00"
+        },
+        {
+            "AcceptStation": "离开【长春市邮件处理中心】下一站【长春市永春邮政支局】",
+            "AcceptTime": "2020-07-11 06:23:00"
+        },
+        {
+            "AcceptStation": "到达【长春市永春邮政支局】",
+            "AcceptTime": "2020-07-11 07:33:00"
+        },
+        {
+            "AcceptStation": "【长春市永春邮政支局】安排投递投递员:司振东电话:18743001256揽投部电话:13596076134",
+            "AcceptTime": "2020-07-11 07:59:00"
+        },
+        {
+            "AcceptStation": "已签收他人代收：快递柜投递员:司振东电话:18743001256",
+            "AcceptTime": "2020-07-11 09:08:00"
+        }
+    ],
+    "State": "3",
+    "EBusinessID": "1672137",
+    "Success": True
+}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="99.75" r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>手机号长度超过11位</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>{"mobilephone": "15677889910",'pwd':'129qwe'}</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://sandboxapi.kdniao.com:8080/kdniaosandbox/gateway/exterfaceInvoke.json" ref="E2" tooltip="http://sandboxapi.kdniao.com:8080/kdniaosandbox/gateway/exterfaceInvoke.json" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId8"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col width="22.875" customWidth="1" min="2" max="2"/>
+    <col width="25.75" customWidth="1" min="5" max="5"/>
+    <col width="78" customWidth="1" min="6" max="6"/>
+    <col width="37.875" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
@@ -3496,431 +3935,394 @@
           <t>excepted</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="409.5" r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="171" customHeight="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>原始数据</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>传错编码</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>http://sandboxapi.kdniao.com:8080/kdniaosandbox/gateway/exterfaceInvoke.json</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>{"OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","IsHandleInfo":"0"}</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>RequestType=8001&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22STOss%22%2C%22LogisticCode%22%3A%22772009930289793%22%7D&amp;DataSign=NWFhMWExMDA1OGRlZTRjMDgyN2M5YzRkYTE5YzQ3Y2M%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "YT4841733297234",
+    "ShipperCode": "STOss",
+    "Traces": [],
+    "State": "0",
+    "EBusinessID": "1672137",
+    "Reason": "无效的输入[【ShipperCode】物流公司编号不正确或物流渠道升级中，暂不支持查询，请下载快递鸟支持的快递公司编码列表核实后传值]",
+    "Success": False
+}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="171" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>快递编号超过50位</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>RequestType=8001&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22YD%22%2C%22LogisticCode%22%3A%22231212312323121231232312123123231212311232312123123%22%7D&amp;DataSign=MGQ5NWY1ZTRjYzg0MDY1OGE1MDMzYTY4OWZjZjRhOTM%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "231212312323121231232312123123231212311232312123123",
+    "ShipperCode": "YD",
+    "Traces": [],
+    "State": "0",
+    "EBusinessID": "1672137",
+    "Reason": "无效的输入[【LogisticCode】快递单号格式错误，字符长度不能超過50位]",
+    "Success": False
+}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="142.5" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>快递编号小于5位</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>RequestType=8001&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22YD%22%2C%22LogisticCode%22%3A%222312%22%7D&amp;DataSign=ZmU2MzgyNDliYWYzNDBlMThmZWYyODY2YjUyZThiN2E%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "2313",
+    "ShipperCode": "YD",
+    "Traces": [],
+    "State": "0",
+    "EBusinessID": "1672137",
+    "Reason": "无效的输入[【LogisticCode】快递单号格式错误，字符长度必须在5位以上]",
+    "Success": False
+}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="156.75" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>快递单号不支持汉字</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>RequestType=8001&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22YD%22%2C%22LogisticCode%22%3A%222%E9%98%BF%E8%90%A8%E5%BE%B713%22%7D&amp;DataSign=NjM3ZTNmOTYzNThiMGExZjFiNGJkNzZjY2NlMzdjMTU%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "2阿萨德13",
+    "ShipperCode": "YD",
+    "Traces": [],
+    "State": "0",
+    "EBusinessID": "1672137",
+    "Reason": "无效的输入[【LogisticCode】快递单号格式错误，仅支持数字或字母数字格式]",
+    "Success": False
+}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="156.75" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>快递单号不支持符号</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>RequestType=8001&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22YD%22%2C%22LogisticCode%22%3A%222%EF%BF%A5%23%23%2313%22%7D&amp;DataSign=ZjQyNGNkNWYxZTMzYjZhMmZkNjhhZGU1OGFjMDUxMmU%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "LogisticCode": "2￥###13",
+    "ShipperCode": "YD",
+    "Traces": [],
+    "State": "0",
+    "EBusinessID": "1672137",
+    "Reason": "无效的输入[【LogisticCode】快递单号格式错误，仅支持数字或字母数字格式]",
+    "Success": False
+}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="71.25" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>id或者key错了-密码错误</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RequestType=8001&amp;EBusinessID=1672137&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22YD%22%2C%22LogisticCode%22%3A%222%EF%BF%A5%23%23%2313%22%7D&amp;DataSign=YTUzMjhkMThkN2E0MmVhYmYzZTAxYTRmNWY4MTE4ZGY%3D&amp;DataType=2
 </t>
         </is>
       </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="3">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>正常充值</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "Success": False,
+    "Reason": "非法参数[请核实ID和key是否正确，如正确请根据文档要求去除特殊字符.]"
+}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="71.25" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>id或者key错了-账号错误</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":50000}</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>RequestType=8001&amp;EBusinessID=167213&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22YD%22%2C%22LogisticCode%22%3A%2221231213%22%7D&amp;DataSign=OGVkODJhZTUwOWQxZThjMmZlYzY1NjliMzY1MmIwNTQ%3D&amp;DataType=2</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "Success": False,
+    "Reason": "非法参数[请核实ID和key是否正确，如正确请根据文档要求去除特殊字符.]"
+}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="71.25" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>id或者key错了-传了特殊字符</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>提示语优化</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>http://api.kdniao.com/api/dist</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RequestType=8001&amp;EBusinessID=1672137!&amp;RequestData=%7B%22OrderCode%22%3A%22%22%2C%22ShipperCode%22%3A%22YD%22%2C%22LogisticCode%22%3A%2221231213%22%7D&amp;DataSign=OGVkODJhZTUwOWQxZThjMmZlYzY1NjliMzY1MmIwNTQ%3D&amp;DataType=2
 </t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>正常充值：充值金额为小数</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":100.10}</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>充值手机号码不存在</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"12345677889","amount":101}</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="6">
-      <c r="A6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>充值金额小数点大于两位</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":102.223}</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="7">
-      <c r="A7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>充值额度为负数</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":-103}</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H7" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="8">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>充值额度为空</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":None}</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="9">
-      <c r="A9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>充值失败，充值额度大于50万</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":510000}</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="10">
-      <c r="A10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>充值失败，充值金额小数超过两位</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":1000.123}</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="11">
-      <c r="A11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>调试</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>充值失败，充值金额输入的不是数字</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"15677889900","amount":"abc"}</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"EBusinessID":"test1672137","OrderCode":"","ShipperCode":"SF","LogisticCode":"1234561","Success":true,"State":"1","Reason":null,"Traces":[{"AcceptTime":"2020-09-18 14:30:29","AcceptStation":"保税区网点已揽件，快递员张三，手机号1316789***[深圳市]","Remark":null}]}
-</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="n"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "Success": False,
+    "Reason": "非法参数[请核实ID和key是否正确，如正确请根据文档要求去除特殊字符.]"
+}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://sandboxapi.kdniao.com:8080/kdniaosandbox/gateway/exterfaceInvoke.json" ref="E2" tooltip="http://sandboxapi.kdniao.com:8080/kdniaosandbox/gateway/exterfaceInvoke.json" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="E11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" display="http://api.kdniao.com/api/dist" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" tooltip="http://api.kdniao.com/api/dist" display="http://api.kdniao.com/api/dist" r:id="rId8"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>